--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E619545\OneDrive - UCB\Desktop\misc\Harmony\tnd-vaccine-effectiveness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{22416C25-3BEC-4ECC-8D7B-CA2F8AF4542D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A3A09E3-C0A7-4543-BAD9-8D493D16EB11}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{22416C25-3BEC-4ECC-8D7B-CA2F8AF4542D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5635090-F1F7-4E32-897E-AEABF34D4174}"/>
   <bookViews>
     <workbookView xWindow="1250" yWindow="390" windowWidth="7640" windowHeight="5230" xr2:uid="{481E74A2-2C49-4CE8-8184-A11CCA12FEB2}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,10 +471,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,9 +506,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,19 +738,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176B9131-32AF-470D-9E78-4FE881BEE866}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F957FB5E-BE42-4382-BD79-A2F43273DA18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -772,9 +771,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F957FB5E-BE42-4382-BD79-A2F43273DA18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176B9131-32AF-470D-9E78-4FE881BEE866}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>